--- a/perms.xlsx
+++ b/perms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjcurrie\Documents\GitHub\project0-ers-api-kennethcurrie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{BA2A6844-CDFC-4F81-B85B-52F521E61B8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE807E13-47AF-424A-8A48-12A4CDE3CD66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" xr2:uid="{C5D813E6-811A-4EB3-8CD3-5C64778882C9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Admin</t>
   </si>
@@ -87,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,12 +119,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -438,7 +447,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,6 +498,9 @@
       <c r="C3" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -503,6 +515,9 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -511,6 +526,9 @@
       <c r="B5" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -534,6 +552,15 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/perms.xlsx
+++ b/perms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjcurrie\Documents\GitHub\project0-ers-api-kennethcurrie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE807E13-47AF-424A-8A48-12A4CDE3CD66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3005FEBA-ABB3-4509-B6B7-0033D2C0430E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" xr2:uid="{C5D813E6-811A-4EB3-8CD3-5C64778882C9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Admin</t>
   </si>
@@ -107,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -115,19 +115,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +603,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,13 +614,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -472,16 +629,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="b">
+      <c r="B2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="b">
@@ -489,30 +646,31 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="C3" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10"/>
       <c r="F3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="b">
@@ -520,56 +678,65 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="B5" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="F5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>1</v>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/perms.xlsx
+++ b/perms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjcurrie\Documents\GitHub\project0-ers-api-kennethcurrie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3005FEBA-ABB3-4509-B6B7-0033D2C0430E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D222A942-7DB7-418A-B732-10C15F3AB617}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485" xr2:uid="{C5D813E6-811A-4EB3-8CD3-5C64778882C9}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Admin</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>reimbursements:patch</t>
-  </si>
-  <si>
-    <t>done</t>
   </si>
   <si>
     <t>ASSUME</t>
@@ -600,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5273D41-EA59-423D-89EA-31A089BB5989}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +610,7 @@
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -624,11 +621,8 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -641,26 +635,20 @@
       <c r="D2" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -673,11 +661,8 @@
       <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -686,11 +671,8 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -700,7 +682,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -714,21 +696,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
